--- a/data-raw/obsi.potato.xlsx
+++ b/data-raw/obsi.potato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C3B33C-ED60-42F0-B292-563717D3F0B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346F20C-4CBB-4515-8E4B-E23E733EA9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="22572" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hollota" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,9 +404,9 @@
       <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>2.68</v>
       </c>
@@ -480,7 +486,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1.6</v>
       </c>
@@ -560,7 +566,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -640,7 +646,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.6</v>
       </c>
@@ -720,7 +726,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.74</v>
       </c>
@@ -800,7 +806,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -880,7 +886,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.94</v>
       </c>
@@ -960,7 +966,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2.4</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2.4</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.98</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.1</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.7</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2.8</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3.2</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.4</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.6</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4.7</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.9</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.6</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.3</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.0599999999999996</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.4</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.36</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.62</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.7</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.9</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.98</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.1599999999999999</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.4</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2.4</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2.5</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2.1</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2.84</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2.6</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.92</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3.24</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2.34</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3.64</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.86</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.68</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2400000000000002</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.9</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3.5</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2.74</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2.04</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2.88</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3.3</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.04</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.32</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2.7</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3.14</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4.08</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3.5</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2.98</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3.9</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3.6</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4.1399999999999997</v>
       </c>
@@ -5360,7 +5366,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3.6</v>
       </c>
@@ -5452,9 +5458,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5.04</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5.24</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.94</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.6</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.46</v>
       </c>
@@ -5749,7 +5755,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.1</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.1</v>
       </c>
@@ -5867,7 +5873,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5.7</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5.64</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5.88</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.76</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6.16</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.14</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.54</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4.0999999999999996</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5.5</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5.7</v>
       </c>
@@ -6457,7 +6463,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7.3</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>6.46</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.66</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.88</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6.64</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5.42</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5.12</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5.34</v>
       </c>
@@ -6929,7 +6935,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6.18</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5.08</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4.1399999999999997</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5.58</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4.4000000000000004</v>
       </c>
@@ -7224,7 +7230,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7.1</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4.5</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.9000000000000004</v>
       </c>
@@ -7401,7 +7407,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6.56</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3.64</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6.88</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6.02</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6.1</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5.04</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.12</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.1500000000000004</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6.22</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6.41</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.58</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6.38</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5.42</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6.02</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6.94</v>
       </c>
